--- a/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H2">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N2">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q2">
-        <v>656.5395741439454</v>
+        <v>3012.746194569829</v>
       </c>
       <c r="R2">
-        <v>656.5395741439454</v>
+        <v>27114.71575112846</v>
       </c>
       <c r="S2">
-        <v>0.01075931577382413</v>
+        <v>0.03187654770395885</v>
       </c>
       <c r="T2">
-        <v>0.01075931577382413</v>
+        <v>0.03187654770395885</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H3">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N3">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q3">
-        <v>18153.56065144461</v>
+        <v>43100.87901089319</v>
       </c>
       <c r="R3">
-        <v>18153.56065144461</v>
+        <v>387907.9110980387</v>
       </c>
       <c r="S3">
-        <v>0.2974990376213595</v>
+        <v>0.456031519797328</v>
       </c>
       <c r="T3">
-        <v>0.2974990376213595</v>
+        <v>0.4560315197973281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H4">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N4">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q4">
-        <v>2762.380852028508</v>
+        <v>6593.066425235883</v>
       </c>
       <c r="R4">
-        <v>2762.380852028508</v>
+        <v>59337.59782712295</v>
       </c>
       <c r="S4">
-        <v>0.04526966697063671</v>
+        <v>0.06975834764913183</v>
       </c>
       <c r="T4">
-        <v>0.04526966697063671</v>
+        <v>0.06975834764913184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H5">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N5">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q5">
-        <v>675.9708572044606</v>
+        <v>1348.557430002923</v>
       </c>
       <c r="R5">
-        <v>675.9708572044606</v>
+        <v>12137.01687002631</v>
       </c>
       <c r="S5">
-        <v>0.01107775401970023</v>
+        <v>0.01426849541010016</v>
       </c>
       <c r="T5">
-        <v>0.01107775401970023</v>
+        <v>0.01426849541010016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H6">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N6">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q6">
-        <v>18690.84277344677</v>
+        <v>19292.70070428093</v>
       </c>
       <c r="R6">
-        <v>18690.84277344677</v>
+        <v>173634.3063385284</v>
       </c>
       <c r="S6">
-        <v>0.3063039722177074</v>
+        <v>0.2041276146814689</v>
       </c>
       <c r="T6">
-        <v>0.3063039722177074</v>
+        <v>0.2041276146814689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H7">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N7">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q7">
-        <v>2844.137697115419</v>
+        <v>2951.170838844647</v>
       </c>
       <c r="R7">
-        <v>2844.137697115419</v>
+        <v>26560.53754960182</v>
       </c>
       <c r="S7">
-        <v>0.04660949132792493</v>
+        <v>0.0312250458390823</v>
       </c>
       <c r="T7">
-        <v>0.04660949132792493</v>
+        <v>0.0312250458390823</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H8">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N8">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q8">
-        <v>524.5971706588623</v>
+        <v>1041.112789112845</v>
       </c>
       <c r="R8">
-        <v>524.5971706588623</v>
+        <v>9370.01510201561</v>
       </c>
       <c r="S8">
-        <v>0.008597054671887759</v>
+        <v>0.01101555834579549</v>
       </c>
       <c r="T8">
-        <v>0.008597054671887759</v>
+        <v>0.01101555834579549</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H9">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N9">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q9">
-        <v>14505.30467649148</v>
+        <v>14894.34338714796</v>
       </c>
       <c r="R9">
-        <v>14505.30467649148</v>
+        <v>134049.0904843317</v>
       </c>
       <c r="S9">
-        <v>0.2377117230342038</v>
+        <v>0.1575905226783821</v>
       </c>
       <c r="T9">
-        <v>0.2377117230342038</v>
+        <v>0.1575905226783821</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H10">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N10">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q10">
-        <v>2207.23507969171</v>
+        <v>2278.361777422699</v>
       </c>
       <c r="R10">
-        <v>2207.23507969171</v>
+        <v>20505.25599680429</v>
       </c>
       <c r="S10">
-        <v>0.03617198436275553</v>
+        <v>0.02410634789475222</v>
       </c>
       <c r="T10">
-        <v>0.03617198436275553</v>
+        <v>0.02410634789475222</v>
       </c>
     </row>
   </sheetData>
